--- a/3.results/model_selection/petit_puffin_HR_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/petit_puffin_HR_3_blocks_assemblage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA822E3-D04A-45BC-8B45-BBDFBE65D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59F797-DEBE-40F9-8F99-38B70C446FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blocks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>model</t>
   </si>
@@ -85,9 +85,15 @@
     <t>beta_mean_CHL</t>
   </si>
   <si>
+    <t>beta_mean_spring_SST</t>
+  </si>
+  <si>
     <t>beta_mean_SSH</t>
   </si>
   <si>
+    <t>beta_mean_summer_SST</t>
+  </si>
+  <si>
     <t>beta_mean_winter_SST</t>
   </si>
   <si>
@@ -106,9 +112,15 @@
     <t>sd_beta_mean_CHL</t>
   </si>
   <si>
+    <t>sd_beta_mean_spring_SST</t>
+  </si>
+  <si>
     <t>sd_beta_mean_SSH</t>
   </si>
   <si>
+    <t>sd_beta_mean_summer_SST</t>
+  </si>
+  <si>
     <t>sd_beta_mean_winter_SST</t>
   </si>
   <si>
@@ -121,19 +133,19 @@
     <t>mean_CHL + sd_SAL + mean_SSH</t>
   </si>
   <si>
-    <t>mean_winter_SST + mean_autumn_SST</t>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
   </si>
   <si>
     <t>log_dist_to_shore + log_bathymetry + mean_CHL + sd_SAL + mean_SSH</t>
   </si>
   <si>
-    <t>log_dist_to_shore + log_bathymetry + mean_winter_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t>mean_CHL + sd_SAL + mean_SSH + mean_winter_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t>log_dist_to_shore + log_bathymetry + mean_CHL + sd_SAL + mean_SSH + mean_winter_SST + mean_autumn_SST</t>
+    <t>log_dist_to_shore + log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_SAL + mean_SSH + mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>log_dist_to_shore + log_bathymetry + mean_CHL + sd_SAL + mean_SSH + mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -256,66 +268,6 @@
         <color rgb="FFFFB6C1"/>
         <name val="Calibri"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -621,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,19 +675,31 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>490.8</v>
+        <v>463.6</v>
       </c>
       <c r="D2" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
@@ -744,13 +708,13 @@
         <v>0.15</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
         <v>757</v>
@@ -771,61 +735,65 @@
         <v>238</v>
       </c>
       <c r="P2" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q2" s="1">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="R2" s="1">
         <v>-1.1599999999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-2.33</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AB2" s="1">
         <v>0.42</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="1">
-        <v>199.9</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1">
         <v>0.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>0.64</v>
       </c>
       <c r="I3" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>751</v>
@@ -834,10 +802,10 @@
         <v>238</v>
       </c>
       <c r="L3" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M3" s="1">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="N3" s="1">
         <v>750</v>
@@ -851,129 +819,173 @@
       <c r="Q3" s="1">
         <v>1432</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1.36</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1">
-        <v>-1.51</v>
-      </c>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="Z3" s="1">
+        <v>-0.77</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.34</v>
+      </c>
       <c r="AB3" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1">
-        <v>0.52</v>
+        <v>0.54</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1">
+        <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>1.002</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>705.3</v>
+        <v>313.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.51</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.49</v>
       </c>
       <c r="J4" s="1">
         <v>779</v>
       </c>
       <c r="K4" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="1">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M4" s="1">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="N4" s="1">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O4" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="1">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="1">
-        <v>1466</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+        <v>1462</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.83</v>
+      </c>
       <c r="T4" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="W4" s="1">
-        <v>-4.3099999999999996</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-1.62</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-0.81</v>
+      </c>
       <c r="AA4" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.53</v>
+      </c>
       <c r="AD4" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="AE4" s="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
-        <v>1.147</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>219.8</v>
+        <v>243.4</v>
       </c>
       <c r="D5" s="1">
         <v>0.66</v>
       </c>
       <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.64</v>
@@ -988,67 +1000,75 @@
         <v>237</v>
       </c>
       <c r="L5" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M5" s="1">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="N5" s="1">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O5" s="1">
         <v>232</v>
       </c>
       <c r="P5" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="1">
         <v>1429</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.67</v>
+        <v>-0.23</v>
       </c>
       <c r="S5" s="1">
-        <v>-1.28</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
-        <v>2.4300000000000002</v>
-      </c>
+        <v>-1.76</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1">
-        <v>-0.82</v>
+        <v>-0.73</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="AA5" s="1"/>
+        <v>-2.33</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
+        <v>0.45</v>
+      </c>
       <c r="AB5" s="1">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.42</v>
+        <v>1.38</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
-        <v>0.51</v>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1020000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C6" s="1">
-        <v>225</v>
+        <v>74.8</v>
       </c>
       <c r="D6" s="1">
         <v>0.66</v>
@@ -1057,168 +1077,180 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="G6" s="1">
         <v>0.5</v>
       </c>
       <c r="H6" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <v>760</v>
       </c>
       <c r="K6" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L6" s="1">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M6" s="1">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="N6" s="1">
         <v>758</v>
       </c>
       <c r="O6" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P6" s="1">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="1">
-        <v>1440</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1.7</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="U6" s="1"/>
+        <v>1436</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>3.88</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1">
-        <v>-2.04</v>
+        <v>1.39</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1">
-        <v>0.44</v>
-      </c>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0.86</v>
-      </c>
+        <v>-1.46</v>
+      </c>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>1.2509999999999999</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>112.6</v>
+        <v>127.6</v>
       </c>
       <c r="D7" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E7" s="1">
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I7" s="1">
         <v>0.5</v>
       </c>
       <c r="J7" s="1">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K7" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L7" s="1">
         <v>454</v>
       </c>
       <c r="M7" s="1">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="N7" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O7" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P7" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="1">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="U7" s="1">
-        <v>2.15</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="V7" s="1">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="W7" s="1">
-        <v>-1.41</v>
+        <v>1.51</v>
       </c>
       <c r="X7" s="1">
-        <v>-1.03</v>
-      </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0.91</v>
-      </c>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1.47</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-1.04</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1">
-        <v>0.41</v>
+        <v>1.43</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.77</v>
+        <v>1.07</v>
       </c>
       <c r="AE7" s="1">
-        <v>0.47</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>211.4</v>
+        <v>92.3</v>
       </c>
       <c r="D8" s="1">
         <v>0.66</v>
@@ -1227,122 +1259,87 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H8" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I8" s="1">
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K8" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8" s="1">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M8" s="1">
         <v>1442</v>
       </c>
       <c r="N8" s="1">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O8" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P8" s="1">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="1">
         <v>1431</v>
       </c>
-      <c r="R8" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-0.63</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>-0.53</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-4.08</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U8" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="W8" s="1">
-        <v>-1.44</v>
-      </c>
-      <c r="X8" s="1">
-        <v>-0.8</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0.56000000000000005</v>
-      </c>
+      <c r="AH8" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="AI8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="D2:I8">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>J2&lt;753</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1351,11 +1348,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>J2&lt;755</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>K2&lt;235</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1364,11 +1361,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;235</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>L2&lt;452</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1377,11 +1374,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>L2&lt;459</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>M2&lt;1445</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,11 +1387,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;1444</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>N2&lt;751</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1403,11 +1400,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>N2&lt;754</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O8">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>O2&lt;232</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1416,11 +1413,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>O2&lt;232</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>P2&lt;449</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1429,11 +1426,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;453</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>Q2&lt;1432</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1442,9 +1439,6 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Q2&lt;1432</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
